--- a/tests/BomComparer.Tests/TestData/test.xlsx
+++ b/tests/BomComparer.Tests/TestData/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Teltonika course\4 uzd\BomComparer\tests\BomComparer.Tests\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iot14\Desktop\Git\BomComparer\tests\BomComparer.Tests\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8771B914-3ED5-4C28-88A6-6BC372E46AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D648F17D-EFB3-4DED-9412-BE0AAD643531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="3255" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -162,11 +162,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -181,6 +190,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -463,15 +475,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,34 +514,35 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
